--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H2">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I2">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J2">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N2">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q2">
-        <v>1.153629470843116</v>
+        <v>2.079008331246</v>
       </c>
       <c r="R2">
-        <v>1.153629470843116</v>
+        <v>18.711074981214</v>
       </c>
       <c r="S2">
-        <v>1.824182015021413E-05</v>
+        <v>3.050538838511074E-05</v>
       </c>
       <c r="T2">
-        <v>1.824182015021413E-05</v>
+        <v>3.050538838511074E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H3">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I3">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J3">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q3">
-        <v>96.49523662186688</v>
+        <v>136.6387874101763</v>
       </c>
       <c r="R3">
-        <v>96.49523662186688</v>
+        <v>1229.749086691587</v>
       </c>
       <c r="S3">
-        <v>0.001525835457828583</v>
+        <v>0.002004907443502112</v>
       </c>
       <c r="T3">
-        <v>0.001525835457828583</v>
+        <v>0.002004907443502112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H4">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I4">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J4">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N4">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q4">
-        <v>0.3558948205084782</v>
+        <v>0.6935632229936667</v>
       </c>
       <c r="R4">
-        <v>0.3558948205084782</v>
+        <v>6.242069006943001</v>
       </c>
       <c r="S4">
-        <v>5.627603552259874E-06</v>
+        <v>1.017668624462453E-05</v>
       </c>
       <c r="T4">
-        <v>5.627603552259874E-06</v>
+        <v>1.017668624462453E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H5">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I5">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J5">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N5">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q5">
-        <v>0.8839273685960973</v>
+        <v>1.303908659592</v>
       </c>
       <c r="R5">
-        <v>0.8839273685960973</v>
+        <v>11.735177936328</v>
       </c>
       <c r="S5">
-        <v>1.397714300068781E-05</v>
+        <v>1.913231394110107E-05</v>
       </c>
       <c r="T5">
-        <v>1.397714300068781E-05</v>
+        <v>1.913231394110107E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H6">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I6">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J6">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N6">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q6">
-        <v>5.24001549017661</v>
+        <v>7.558332275083333</v>
       </c>
       <c r="R6">
-        <v>5.24001549017661</v>
+        <v>68.02499047575</v>
       </c>
       <c r="S6">
-        <v>8.285799086450085E-05</v>
+        <v>0.0001109037699031002</v>
       </c>
       <c r="T6">
-        <v>8.285799086450085E-05</v>
+        <v>0.0001109037699031002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H7">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I7">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J7">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N7">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O7">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P7">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q7">
-        <v>33.85104690947025</v>
+        <v>58.88141858863367</v>
       </c>
       <c r="R7">
-        <v>33.85104690947025</v>
+        <v>529.9327672977031</v>
       </c>
       <c r="S7">
-        <v>0.0005352712679641604</v>
+        <v>0.0008639698628028309</v>
       </c>
       <c r="T7">
-        <v>0.0005352712679641604</v>
+        <v>0.0008639698628028308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H8">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I8">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J8">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N8">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q8">
-        <v>521.8248617987466</v>
+        <v>669.7120563261241</v>
       </c>
       <c r="R8">
-        <v>521.8248617987466</v>
+        <v>6027.408506935117</v>
       </c>
       <c r="S8">
-        <v>0.00825138011764402</v>
+        <v>0.009826716938731786</v>
       </c>
       <c r="T8">
-        <v>0.00825138011764402</v>
+        <v>0.009826716938731784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H9">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I9">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J9">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q9">
-        <v>43647.99512068871</v>
+        <v>44015.52505349219</v>
       </c>
       <c r="R9">
-        <v>43647.99512068871</v>
+        <v>396139.7254814297</v>
       </c>
       <c r="S9">
-        <v>0.6901859713475598</v>
+        <v>0.6458418980585001</v>
       </c>
       <c r="T9">
-        <v>0.6901859713475598</v>
+        <v>0.6458418980585</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H10">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I10">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J10">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N10">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q10">
-        <v>160.9830281043349</v>
+        <v>223.4178888474602</v>
       </c>
       <c r="R10">
-        <v>160.9830281043349</v>
+        <v>2010.760999627142</v>
       </c>
       <c r="S10">
-        <v>0.002545551687206767</v>
+        <v>0.003278221337087481</v>
       </c>
       <c r="T10">
-        <v>0.002545551687206767</v>
+        <v>0.003278221337087481</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H11">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I11">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J11">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N11">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q11">
-        <v>399.8296581489768</v>
+        <v>420.0287880296481</v>
       </c>
       <c r="R11">
-        <v>399.8296581489768</v>
+        <v>3780.259092266832</v>
       </c>
       <c r="S11">
-        <v>0.006322325234414114</v>
+        <v>0.006163102436483523</v>
       </c>
       <c r="T11">
-        <v>0.006322325234414114</v>
+        <v>0.006163102436483522</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H12">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I12">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J12">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N12">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q12">
-        <v>2370.232755051168</v>
+        <v>2434.769584260611</v>
       </c>
       <c r="R12">
-        <v>2370.232755051168</v>
+        <v>21912.9262583455</v>
       </c>
       <c r="S12">
-        <v>0.03747941667976847</v>
+        <v>0.0357254902156215</v>
       </c>
       <c r="T12">
-        <v>0.03747941667976847</v>
+        <v>0.03572549021562149</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H13">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I13">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J13">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N13">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O13">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P13">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q13">
-        <v>15311.95095281975</v>
+        <v>18967.50259714429</v>
       </c>
       <c r="R13">
-        <v>15311.95095281975</v>
+        <v>170707.5233742986</v>
       </c>
       <c r="S13">
-        <v>0.2421209430668426</v>
+        <v>0.2783110701026905</v>
       </c>
       <c r="T13">
-        <v>0.2421209430668426</v>
+        <v>0.2783110701026905</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H14">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I14">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J14">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N14">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q14">
-        <v>0.2799009341550069</v>
+        <v>0.363484366008</v>
       </c>
       <c r="R14">
-        <v>0.2799009341550069</v>
+        <v>3.271359294072</v>
       </c>
       <c r="S14">
-        <v>4.425946657726227E-06</v>
+        <v>5.33342343575138E-06</v>
       </c>
       <c r="T14">
-        <v>4.425946657726227E-06</v>
+        <v>5.333423435751379E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H15">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I15">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J15">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q15">
-        <v>23.41228926149892</v>
+        <v>23.88930446667512</v>
       </c>
       <c r="R15">
-        <v>23.41228926149892</v>
+        <v>215.003740200076</v>
       </c>
       <c r="S15">
-        <v>0.0003702079227405007</v>
+        <v>0.0003505289036380755</v>
       </c>
       <c r="T15">
-        <v>0.0003702079227405007</v>
+        <v>0.0003505289036380754</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H16">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I16">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J16">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N16">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q16">
-        <v>0.08634946942578446</v>
+        <v>0.1212594411515556</v>
       </c>
       <c r="R16">
-        <v>0.08634946942578446</v>
+        <v>1.091334970364</v>
       </c>
       <c r="S16">
-        <v>1.365405037876138E-06</v>
+        <v>1.779245562461379E-06</v>
       </c>
       <c r="T16">
-        <v>1.365405037876138E-06</v>
+        <v>1.779245562461379E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H17">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I17">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J17">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N17">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q17">
-        <v>0.2144640913294341</v>
+        <v>0.227969462816</v>
       </c>
       <c r="R17">
-        <v>0.2144640913294341</v>
+        <v>2.051725165344001</v>
       </c>
       <c r="S17">
-        <v>3.391223509444016E-06</v>
+        <v>3.345006798976733E-06</v>
       </c>
       <c r="T17">
-        <v>3.391223509444016E-06</v>
+        <v>3.345006798976732E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H18">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I18">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J18">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N18">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q18">
-        <v>1.27136595220234</v>
+        <v>1.321464456777778</v>
       </c>
       <c r="R18">
-        <v>1.27136595220234</v>
+        <v>11.893180111</v>
       </c>
       <c r="S18">
-        <v>2.010353378735306E-05</v>
+        <v>1.938991099038341E-05</v>
       </c>
       <c r="T18">
-        <v>2.010353378735306E-05</v>
+        <v>1.938991099038341E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H19">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I19">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J19">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N19">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O19">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P19">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q19">
-        <v>8.213156729743595</v>
+        <v>10.29455956653822</v>
       </c>
       <c r="R19">
-        <v>8.213156729743595</v>
+        <v>92.65103609884402</v>
       </c>
       <c r="S19">
-        <v>0.0001298709262515695</v>
+        <v>0.0001510525634318619</v>
       </c>
       <c r="T19">
-        <v>0.0001298709262515695</v>
+        <v>0.0001510525634318619</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H20">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I20">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J20">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N20">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q20">
-        <v>5.490120392774002</v>
+        <v>1.00061738211</v>
       </c>
       <c r="R20">
-        <v>5.490120392774002</v>
+        <v>9.00555643899</v>
       </c>
       <c r="S20">
-        <v>8.681278637482541E-05</v>
+        <v>1.468210656369251E-05</v>
       </c>
       <c r="T20">
-        <v>8.681278637482541E-05</v>
+        <v>1.468210656369251E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H21">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I21">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J21">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q21">
-        <v>459.2206421322503</v>
+        <v>65.76363533431056</v>
       </c>
       <c r="R21">
-        <v>459.2206421322503</v>
+        <v>591.872718008795</v>
       </c>
       <c r="S21">
-        <v>0.007261447956006285</v>
+        <v>0.0009649529573013323</v>
       </c>
       <c r="T21">
-        <v>0.007261447956006285</v>
+        <v>0.0009649529573013322</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H22">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I22">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J22">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N22">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q22">
-        <v>1.693702753907848</v>
+        <v>0.3338088674727778</v>
       </c>
       <c r="R22">
-        <v>1.693702753907848</v>
+        <v>3.004279807255</v>
       </c>
       <c r="S22">
-        <v>2.678175428556729E-05</v>
+        <v>4.897993430621869E-06</v>
       </c>
       <c r="T22">
-        <v>2.678175428556729E-05</v>
+        <v>4.897993430621869E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H23">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I23">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J23">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N23">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q23">
-        <v>4.206608616295001</v>
+        <v>0.62756538772</v>
       </c>
       <c r="R23">
-        <v>4.206608616295001</v>
+        <v>5.64808848948</v>
       </c>
       <c r="S23">
-        <v>6.651719617106594E-05</v>
+        <v>9.208296860444838E-06</v>
       </c>
       <c r="T23">
-        <v>6.651719617106594E-05</v>
+        <v>9.208296860444838E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H24">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I24">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J24">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N24">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q24">
-        <v>24.93722345706484</v>
+        <v>3.637791412638888</v>
       </c>
       <c r="R24">
-        <v>24.93722345706484</v>
+        <v>32.74012271375</v>
       </c>
       <c r="S24">
-        <v>0.0003943210162765863</v>
+        <v>5.337748687137852E-05</v>
       </c>
       <c r="T24">
-        <v>0.0003943210162765863</v>
+        <v>5.337748687137852E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.432248333333333</v>
+      </c>
+      <c r="H25">
+        <v>4.296745</v>
+      </c>
+      <c r="I25">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="J25">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N25">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O25">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P25">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q25">
+        <v>28.33936258820611</v>
+      </c>
+      <c r="R25">
+        <v>255.054263293855</v>
+      </c>
+      <c r="S25">
+        <v>0.0004158248186632262</v>
+      </c>
+      <c r="T25">
+        <v>0.0004158248186632262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H26">
+        <v>2.293185</v>
+      </c>
+      <c r="I26">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J26">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.6986340000000001</v>
+      </c>
+      <c r="N26">
+        <v>2.095902</v>
+      </c>
+      <c r="O26">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="P26">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="Q26">
+        <v>0.53403233643</v>
+      </c>
+      <c r="R26">
+        <v>4.80629102787</v>
+      </c>
+      <c r="S26">
+        <v>7.835881938597987E-06</v>
+      </c>
+      <c r="T26">
+        <v>7.835881938597987E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H27">
+        <v>2.293185</v>
+      </c>
+      <c r="I27">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J27">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N27">
+        <v>137.749091</v>
+      </c>
+      <c r="O27">
+        <v>0.6595968005393648</v>
+      </c>
+      <c r="P27">
+        <v>0.6595968005393646</v>
+      </c>
+      <c r="Q27">
+        <v>35.09823880498167</v>
+      </c>
+      <c r="R27">
+        <v>315.884149244835</v>
+      </c>
+      <c r="S27">
+        <v>0.0005149981316994738</v>
+      </c>
+      <c r="T27">
+        <v>0.0005149981316994738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H28">
+        <v>2.293185</v>
+      </c>
+      <c r="I28">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J28">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2330663333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.699199</v>
+      </c>
+      <c r="O28">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="P28">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="Q28">
+        <v>0.1781547398683333</v>
+      </c>
+      <c r="R28">
+        <v>1.603392658815</v>
+      </c>
+      <c r="S28">
+        <v>2.61407299367326E-06</v>
+      </c>
+      <c r="T28">
+        <v>2.61407299367326E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H29">
+        <v>2.293185</v>
+      </c>
+      <c r="I29">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J29">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.4381680000000001</v>
+      </c>
+      <c r="N29">
+        <v>1.314504</v>
+      </c>
+      <c r="O29">
+        <v>0.006294361918484072</v>
+      </c>
+      <c r="P29">
+        <v>0.006294361918484071</v>
+      </c>
+      <c r="Q29">
+        <v>0.33493342836</v>
+      </c>
+      <c r="R29">
+        <v>3.01440085524</v>
+      </c>
+      <c r="S29">
+        <v>4.914494166146512E-06</v>
+      </c>
+      <c r="T29">
+        <v>4.914494166146512E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H30">
+        <v>2.293185</v>
+      </c>
+      <c r="I30">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J30">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.539916666666667</v>
+      </c>
+      <c r="N30">
+        <v>7.61975</v>
+      </c>
+      <c r="O30">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="P30">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="Q30">
+        <v>1.941499600416666</v>
+      </c>
+      <c r="R30">
+        <v>17.47349640375</v>
+      </c>
+      <c r="S30">
+        <v>2.848771622033473E-05</v>
+      </c>
+      <c r="T30">
+        <v>2.848771622033473E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H31">
+        <v>2.293185</v>
+      </c>
+      <c r="I31">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J31">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N31">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O31">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P31">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q31">
+        <v>15.12479823606833</v>
+      </c>
+      <c r="R31">
+        <v>136.123184124615</v>
+      </c>
+      <c r="S31">
+        <v>0.000221926885767303</v>
+      </c>
+      <c r="T31">
+        <v>0.000221926885767303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>14.723214</v>
+      </c>
+      <c r="H32">
+        <v>44.169642</v>
+      </c>
+      <c r="I32">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J32">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.6986340000000001</v>
+      </c>
+      <c r="N32">
+        <v>2.095902</v>
+      </c>
+      <c r="O32">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="P32">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="Q32">
+        <v>10.286137889676</v>
+      </c>
+      <c r="R32">
+        <v>92.57524100708402</v>
+      </c>
+      <c r="S32">
+        <v>0.0001509289917656618</v>
+      </c>
+      <c r="T32">
+        <v>0.0001509289917656617</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>14.723214</v>
+      </c>
+      <c r="H33">
+        <v>44.169642</v>
+      </c>
+      <c r="I33">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J33">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N33">
+        <v>137.749091</v>
+      </c>
+      <c r="O33">
+        <v>0.6595968005393648</v>
+      </c>
+      <c r="P33">
+        <v>0.6595968005393646</v>
+      </c>
+      <c r="Q33">
+        <v>676.0364483661582</v>
+      </c>
+      <c r="R33">
+        <v>6084.328035295423</v>
+      </c>
+      <c r="S33">
+        <v>0.009919515044723656</v>
+      </c>
+      <c r="T33">
+        <v>0.009919515044723654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>14.723214</v>
+      </c>
+      <c r="H34">
+        <v>44.169642</v>
+      </c>
+      <c r="I34">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J34">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.2330663333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.699199</v>
+      </c>
+      <c r="O34">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="P34">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="Q34">
+        <v>3.431485501862</v>
+      </c>
+      <c r="R34">
+        <v>30.883369516758</v>
+      </c>
+      <c r="S34">
+        <v>5.035035040453177E-05</v>
+      </c>
+      <c r="T34">
+        <v>5.035035040453176E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>10.0567860832655</v>
-      </c>
-      <c r="H25">
-        <v>10.0567860832655</v>
-      </c>
-      <c r="I25">
-        <v>0.01038323562521951</v>
-      </c>
-      <c r="J25">
-        <v>0.01038323562521951</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>16.0187424315542</v>
-      </c>
-      <c r="N25">
-        <v>16.0187424315542</v>
-      </c>
-      <c r="O25">
-        <v>0.2453334401771635</v>
-      </c>
-      <c r="P25">
-        <v>0.2453334401771635</v>
-      </c>
-      <c r="Q25">
-        <v>161.0970659570688</v>
-      </c>
-      <c r="R25">
-        <v>161.0970659570688</v>
-      </c>
-      <c r="S25">
-        <v>0.002547354916105184</v>
-      </c>
-      <c r="T25">
-        <v>0.002547354916105184</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>14.723214</v>
+      </c>
+      <c r="H35">
+        <v>44.169642</v>
+      </c>
+      <c r="I35">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J35">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4381680000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.314504</v>
+      </c>
+      <c r="O35">
+        <v>0.006294361918484072</v>
+      </c>
+      <c r="P35">
+        <v>0.006294361918484071</v>
+      </c>
+      <c r="Q35">
+        <v>6.451241231952001</v>
+      </c>
+      <c r="R35">
+        <v>58.06117108756801</v>
+      </c>
+      <c r="S35">
+        <v>9.465937023387996E-05</v>
+      </c>
+      <c r="T35">
+        <v>9.465937023387995E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>14.723214</v>
+      </c>
+      <c r="H36">
+        <v>44.169642</v>
+      </c>
+      <c r="I36">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J36">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.539916666666667</v>
+      </c>
+      <c r="N36">
+        <v>7.61975</v>
+      </c>
+      <c r="O36">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="P36">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="Q36">
+        <v>37.3957366255</v>
+      </c>
+      <c r="R36">
+        <v>336.5616296295</v>
+      </c>
+      <c r="S36">
+        <v>0.0005487094267796879</v>
+      </c>
+      <c r="T36">
+        <v>0.0005487094267796877</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>14.723214</v>
+      </c>
+      <c r="H37">
+        <v>44.169642</v>
+      </c>
+      <c r="I37">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J37">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N37">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O37">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P37">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q37">
+        <v>291.322733843702</v>
+      </c>
+      <c r="R37">
+        <v>2621.904604593318</v>
+      </c>
+      <c r="S37">
+        <v>0.004274592365865236</v>
+      </c>
+      <c r="T37">
+        <v>0.004274592365865235</v>
       </c>
     </row>
   </sheetData>
